--- a/test artefacts/test case/test-case.xlsx
+++ b/test artefacts/test case/test-case.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>Test ID 1</t>
   </si>
@@ -175,108 +175,23 @@
     <t xml:space="preserve">     Вход в личный кабинет Ozon с неверной почтой                                                                                                                                                                                                      </t>
   </si>
   <si>
-    <t xml:space="preserve">Пользователь зарегистрирован в системе с помощью телефона +7хххххххххх и подтвержденная почта                                                                                                                                                                                                                                                                                                                                                                    Почта: Аgishev-rr@ya.ru                                                                                                                                                             Пользователь находится на странице https://www.ozon.ru/                                                                                                             Неверная почта: gishev-rr@ya.ru </t>
-  </si>
-  <si>
     <t>Ввести в поле "Электронная почта" адрес неверной электронный почты</t>
   </si>
   <si>
     <t>Отображается сообщение " Пользователь с указанным email не найден "</t>
   </si>
   <si>
-    <t>Вход в gmail с неверной почтой</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Пользователь на странице </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">https://accounts.google.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Верная почта: t.testerovich2022@gmail.com Верный пароль: @Test_4or_testing
-Неверная почта: t.testerovich20@gmail.com или t.testerovich2022@gmail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Ввести в поле "Телефон или адрес эл. почты" один из указанных вариантов неверной почты</t>
-  </si>
-  <si>
-    <t>Введеный адрес отображается в поле</t>
-  </si>
-  <si>
-    <t>Нажать кнопку "Далее"</t>
-  </si>
-  <si>
-    <t>Поле подсвечивается красный цветом с сообщением под ним "Не удалось найти аккаунт Google"</t>
-  </si>
-  <si>
-    <t>Вход в gmail с неверным паролем</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Пользователь на странице </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">https://accounts.google.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Верная почта: t.testerovich2022@gmail.com Верный пароль: @Test_4or_testing
-Пример неверного пароля: Test_4or_testing</t>
-    </r>
-  </si>
-  <si>
-    <t>Ввести в поле "Телефон или адрес эл. почты" указанную почту</t>
-  </si>
-  <si>
-    <t>Выполнен переход на страницу с полем для ввода пароля</t>
-  </si>
-  <si>
-    <t>Ввести в поле "Введите пароль" любые символы от 1 до 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пароль введен. </t>
-  </si>
-  <si>
-    <t>Авторизация не выполнена.
-Поле "Введите пароль" подсвечивается красный цветом с сообщением под ним "Неверный пароль. Повторите попытку или нажмите на ссылку "Забыли пароль?", чтобы сбросить его."</t>
+    <t>Test ID 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь зарегистрирован в системе с помощью телефона +7хххххххххх и подтвержденная почта                                                                                                                                                                                                                                                                                                                                                                    Почта: Аgishev-rr@ya.ru                                                                                                                                                                                   Пользователь находится на странице https://www.ozon.ru/                                                                                                             Неверная почта: agishev-rr@ya.ru </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -339,27 +254,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -564,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,21 +473,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,12 +485,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,44 +494,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -671,26 +521,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -704,29 +539,66 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1031,10 +903,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1033"/>
+  <dimension ref="A1:G1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1063,12 +935,12 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
@@ -1076,93 +948,93 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
@@ -1188,12 +1060,12 @@
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
@@ -1201,27 +1073,27 @@
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="3"/>
@@ -1231,78 +1103,78 @@
       <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="10">
         <v>1</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="32" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A17" s="17">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A18" s="17">
+      <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
@@ -1316,7 +1188,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="2"/>
@@ -1327,83 +1199,83 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="12">
+      <c r="A24" s="7">
         <v>1</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A25" s="17">
+      <c r="A25" s="10">
         <v>2</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="2"/>
@@ -1414,96 +1286,96 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="12">
+      <c r="A31" s="7">
         <v>1</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A32" s="17">
+      <c r="A32" s="10">
         <v>2</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="45"/>
     </row>
     <row r="33" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A33" s="17">
+      <c r="A33" s="10">
         <v>3</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="2"/>
@@ -1517,12 +1389,12 @@
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
@@ -1530,27 +1402,27 @@
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="3"/>
@@ -1560,48 +1432,48 @@
       <c r="A39" s="5">
         <v>1</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A40" s="17">
+      <c r="A40" s="10">
         <v>1</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="32" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A41" s="17">
+      <c r="A41" s="10">
         <v>2</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
@@ -1615,7 +1487,7 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2"/>
@@ -1626,15 +1498,15 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
@@ -1642,27 +1514,27 @@
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="5"/>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="3"/>
@@ -1672,63 +1544,63 @@
       <c r="A47" s="5">
         <v>1</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A48" s="17">
+      <c r="A48" s="10">
         <v>1</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="32" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A49" s="17">
+      <c r="A49" s="10">
         <v>2</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="27"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A50" s="17"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A51" s="31" t="s">
-        <v>43</v>
+      <c r="A51" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1738,15 +1610,15 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
@@ -1754,27 +1626,27 @@
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="5"/>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="3"/>
@@ -1784,63 +1656,63 @@
       <c r="A55" s="5">
         <v>1</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A56" s="17">
+      <c r="A56" s="10">
         <v>1</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="32" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A57" s="17">
+      <c r="A57" s="10">
         <v>2</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="27"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A58" s="17"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A59" s="31" t="s">
-        <v>51</v>
+      <c r="A59" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1850,15 +1722,15 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="8"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
@@ -1866,27 +1738,27 @@
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
+      <c r="B61" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="5"/>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="3"/>
@@ -1896,286 +1768,216 @@
       <c r="A63" s="5">
         <v>1</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A64" s="17">
+      <c r="A64" s="10">
         <v>1</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="32" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A65" s="17">
+      <c r="A65" s="10">
         <v>2</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="27"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="32"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A66" s="17">
+      <c r="A66" s="10">
         <v>3</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="27"/>
+      <c r="C66" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="34"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A67" s="17"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="50"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="51" customHeight="1">
-      <c r="A69" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="35"/>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="51" customHeight="1">
-      <c r="A70" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="35"/>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="51" customHeight="1">
-      <c r="A71" s="36"/>
-      <c r="B71" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>8</v>
-      </c>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="51" customHeight="1">
-      <c r="A72" s="53">
-        <v>1</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="55" t="s">
-        <v>12</v>
-      </c>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="51" customHeight="1">
-      <c r="A73" s="53">
-        <v>2</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" ht="36" customHeight="1">
-      <c r="A77" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="35"/>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A78" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="35"/>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="36" customHeight="1">
-      <c r="A79" s="36"/>
-      <c r="B79" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>8</v>
-      </c>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="36" customHeight="1">
-      <c r="A80" s="17">
-        <v>1</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>12</v>
-      </c>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="36" customHeight="1">
-      <c r="A81" s="17">
-        <v>2</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="36" customHeight="1">
-      <c r="A82" s="17">
-        <v>3</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="85.5">
-      <c r="A83" s="17">
-        <v>4</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
@@ -2191,7 +1993,7 @@
     <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="59"/>
+      <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -3835,155 +3637,27 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
-    </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-    </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
-    </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="3"/>
-      <c r="G271" s="3"/>
-    </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A272" s="3"/>
-      <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
-      <c r="G272" s="3"/>
-    </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
-    </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A274" s="3"/>
-      <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
-      <c r="G274" s="3"/>
-    </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A275" s="3"/>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
-    </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A276" s="3"/>
-      <c r="B276" s="3"/>
-      <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
-    </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
-    </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A278" s="3"/>
-      <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
-      <c r="F278" s="3"/>
-      <c r="G278" s="3"/>
-    </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A279" s="3"/>
-      <c r="B279" s="3"/>
-      <c r="C279" s="3"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
-      <c r="G279" s="3"/>
-    </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A280" s="3"/>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
-      <c r="F280" s="3"/>
-      <c r="G280" s="3"/>
-    </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A281" s="3"/>
-      <c r="B281" s="3"/>
-      <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="3"/>
-      <c r="G281" s="3"/>
-    </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A282" s="3"/>
-      <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="3"/>
-    </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A283" s="3"/>
-      <c r="B283" s="3"/>
-      <c r="C283" s="3"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="3"/>
-    </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="288" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="268" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="269" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="270" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="271" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="272" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
     <row r="289" ht="15.75" customHeight="1"/>
     <row r="290" ht="15.75" customHeight="1"/>
     <row r="291" ht="15.75" customHeight="1"/>
@@ -4713,39 +4387,26 @@
     <row r="1015" ht="15.75" customHeight="1"/>
     <row r="1016" ht="15.75" customHeight="1"/>
     <row r="1017" ht="15.75" customHeight="1"/>
-    <row r="1018" ht="15.75" customHeight="1"/>
-    <row r="1019" ht="15.75" customHeight="1"/>
-    <row r="1020" ht="15.75" customHeight="1"/>
-    <row r="1021" ht="15.75" customHeight="1"/>
-    <row r="1022" ht="15.75" customHeight="1"/>
-    <row r="1023" ht="15.75" customHeight="1"/>
-    <row r="1024" ht="15.75" customHeight="1"/>
-    <row r="1025" ht="15.75" customHeight="1"/>
-    <row r="1026" ht="15.75" customHeight="1"/>
-    <row r="1027" ht="15.75" customHeight="1"/>
-    <row r="1028" ht="15.75" customHeight="1"/>
-    <row r="1029" ht="15.75" customHeight="1"/>
-    <row r="1030" ht="15.75" customHeight="1"/>
-    <row r="1031" ht="15.75" customHeight="1"/>
-    <row r="1032" ht="15.75" customHeight="1"/>
-    <row r="1033" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B60:E60"/>
+  <mergeCells count="32">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="B36:E36"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
@@ -4753,30 +4414,15 @@
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B70" r:id="rId1"/>
-    <hyperlink ref="B78" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>